--- a/PM/backlogs.xlsx
+++ b/PM/backlogs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\Eateat\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4392FC2E-FCCE-42DD-8168-F6267BCA2D61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68FCF50-2330-4BED-9245-06E52986F578}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B19"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/PM/backlogs.xlsx
+++ b/PM/backlogs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\Eateat\PM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Se-Ok_Jeon\GITHUB\Eateat\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68FCF50-2330-4BED-9245-06E52986F578}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5406CEC6-E7B4-4D8F-8CBF-ED372CAA8E6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Item #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +189,14 @@
   </si>
   <si>
     <t>Google Map Api() 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장고 모델 save 기능 추가 : save 있어야 음식 사진 올릴 때 데이터 베이스에 그때 그때 저장 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤 추천이 안되는 이유가 이게 서버를 시작 시킬 때마다 order_by("?")가 작동하는 것 같음… 새로 고침 할때 마다 랜덤으로 하나 뽑아오도록 만들어야 될거 같음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -812,6 +820,16 @@
         <v>39</v>
       </c>
     </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PM/backlogs.xlsx
+++ b/PM/backlogs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\Eateat\PM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Se-Ok_Jeon\GITHUB\Eateat\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68FCF50-2330-4BED-9245-06E52986F578}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BFCD12-F421-4100-B0FD-6F8581FEA88F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Item #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,15 +180,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>음식점 위치 관련 API 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Google Map API() 공부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Google Map Api() 적용</t>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRUD 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWA 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwa 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹페이지 화면 줄어들면 오른쪽에 삼선바 생기는 이벤트 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼선바 생기게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼선바 생긴 후 누르면 메뉴 나오게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 나온거 링크 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read (사진 누르면 해당 음식의 디테일을 보여주는 방식)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update(ListView 만들어질때, 수정 버튼 추가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete(ListView 만들어질 때, 삭제 버튼 추가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나중에</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -656,6 +700,9 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -664,6 +711,9 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -680,6 +730,9 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -688,6 +741,9 @@
       <c r="B18" t="s">
         <v>16</v>
       </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -704,6 +760,9 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -712,6 +771,9 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -728,6 +790,9 @@
       <c r="B25" t="s">
         <v>24</v>
       </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -736,6 +801,9 @@
       <c r="B26" t="s">
         <v>25</v>
       </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -752,6 +820,9 @@
       <c r="B29" t="s">
         <v>31</v>
       </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -760,6 +831,9 @@
       <c r="B30" t="s">
         <v>32</v>
       </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -772,7 +846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>20</v>
       </c>
@@ -780,7 +854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>21</v>
       </c>
@@ -788,28 +862,95 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
